--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sotiris\Documents\GitHub\Foodisimo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sotiris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Εργασίες" sheetId="6" r:id="rId1"/>
-    <sheet name="Προβολή μήνα" sheetId="3" r:id="rId2"/>
-    <sheet name="Προβολή εβδομάδας" sheetId="5" r:id="rId3"/>
+    <sheet name="Προβολή μήνα" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Προβολή εβδομάδας" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Εργασίες!$F$3:$F$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Εργασίες!$3:$3</definedName>
     <definedName name="ΑρΕβδΜήνα">MONTH(DATEVALUE(" 1/ "&amp;'Προβολή εβδομάδας'!ΕβδΜήνα))</definedName>
     <definedName name="ΑρΜΜήνα">MONTH(DATEVALUE(" 1/ "&amp;ΜΜήνας))</definedName>
@@ -35,11 +36,12 @@
     <definedName name="ΤίτλοςΣτήλης1">Εργασίες[[#Headers],[ΠΕΡΙΓΡΑΦΗ]]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>ΠΡΟΒΟΛΗ ΜΗΝΑ</t>
   </si>
@@ -98,27 +100,9 @@
     <t>Class Diagram</t>
   </si>
   <si>
-    <t>Προβολές User Site</t>
-  </si>
-  <si>
-    <t>Προβολές Admin Site</t>
-  </si>
-  <si>
-    <t>Δημιουργία Frontend site βάση προβολών</t>
-  </si>
-  <si>
     <t>Δημιουργία Βάσης</t>
   </si>
   <si>
-    <t>Feature Προβολή Παραγγελιών Shopkeeper</t>
-  </si>
-  <si>
-    <t>Feature Προβολή Προϊόντων Shopkeeper</t>
-  </si>
-  <si>
-    <t>Feature Προβολή και Επεξεργασία Στοιχείων Επιχείρησης Shopkeeper</t>
-  </si>
-  <si>
     <t>Feature Προβολή Παραγγελιών User</t>
   </si>
   <si>
@@ -128,9 +112,6 @@
     <t xml:space="preserve"> ΕΡΓΑΣΙΕΣ ΓIA V.0.1</t>
   </si>
   <si>
-    <t>Προβολές Shopkeeper  Site</t>
-  </si>
-  <si>
     <t>ΑΝΑΘΕΣΗ ΣΕ</t>
   </si>
   <si>
@@ -140,23 +121,72 @@
     <t>ΕΩΣ</t>
   </si>
   <si>
-    <t>UX</t>
-  </si>
-  <si>
-    <t>Front-End</t>
-  </si>
-  <si>
     <t>Back-End</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Main Features</t>
+  </si>
+  <si>
+    <t>ΏΡΕΣ</t>
+  </si>
+  <si>
+    <t>Δημιουργία Template Σελίδων για User</t>
+  </si>
+  <si>
+    <t>Δημιουργία Template Σελίδων για Shop</t>
+  </si>
+  <si>
+    <t>Δημιουργία Template Σελίδων για Admin</t>
+  </si>
+  <si>
+    <t>Feature Προβολή Παραγγελιών Shop</t>
+  </si>
+  <si>
+    <t>Feature Προβολή και Επεξεργασία Στοιχείων Επιχείρησης Admin</t>
+  </si>
+  <si>
+    <t>ΚΑΤΑΣΤΑΣΗ</t>
+  </si>
+  <si>
+    <t>ΟΛΟΚΛΗΡΩΜΕΝΟ</t>
+  </si>
+  <si>
+    <t>ΑΝΑΜΟΝΗ</t>
+  </si>
+  <si>
+    <t>ΣΕ ΕΞΕΛΙΞΗ</t>
+  </si>
+  <si>
+    <t>Feature Επεξεργασία Διαθέσιμων Προϊόντων Shop</t>
+  </si>
+  <si>
+    <t>UX, Core</t>
+  </si>
+  <si>
+    <t>Δημιουργία Σελίδων User βάση Template</t>
+  </si>
+  <si>
+    <t>Δημιουργία Σελίδων Shop βάση Template</t>
+  </si>
+  <si>
+    <t>Δημιουργία Σελίδων Admin βάση Template</t>
+  </si>
+  <si>
+    <t>Front-End, Back-End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -266,8 +296,44 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14990691854609822"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14996795556505021"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +343,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,8 +370,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF7030A0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF002060"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -433,21 +518,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0">
@@ -468,12 +581,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4">
       <alignment vertical="center"/>
     </xf>
@@ -481,8 +594,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -501,13 +617,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="15">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="15">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="16">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="16">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="17">
@@ -516,54 +632,83 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="18">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="12" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="12" xfId="21" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="10" borderId="11" xfId="22" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="23">
+    <cellStyle name="Calculation" xfId="22" builtinId="22"/>
+    <cellStyle name="Good" xfId="20" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="1" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Ημέρα" xfId="11"/>
@@ -581,6 +726,31 @@
     <cellStyle name="Χρώμα εργασίας" xfId="6"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14990691854609822"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -630,31 +800,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14990691854609822"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -824,57 +969,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1743075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="266700" cy="266700"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Εικονίδιο εργασίας" descr="Μολύβι">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+    <xdr:ext cx="184731" cy="254557"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="628650"/>
-          <a:ext cx="266700" cy="266700"/>
+          <a:off x="13472160" y="990600"/>
+          <a:ext cx="184731" cy="254557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1011,13 +1150,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Εργασίες" displayName="Εργασίες" ref="B3:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B3:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Εργασίες" displayName="Εργασίες" ref="B3:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B3:E21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ΠΕΡΙΓΡΑΦΗ" dataDxfId="3" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="3" name="ΑΝΑΘΕΣΗ ΣΕ" dataDxfId="1" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="4" name="ΑΠΌ" dataDxfId="0" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="2" name="ΕΩΣ" dataDxfId="2" dataCellStyle="Ημερομηνία"/>
+    <tableColumn id="3" name="ΑΝΑΘΕΣΗ ΣΕ" dataDxfId="2" dataCellStyle="Περιγραφή της εργασίας"/>
+    <tableColumn id="4" name="ΑΠΌ" dataDxfId="1" dataCellStyle="Περιγραφή της εργασίας"/>
+    <tableColumn id="2" name="ΕΩΣ" dataDxfId="0" dataCellStyle="Ημερομηνία"/>
   </tableColumns>
   <tableStyleInfo name="Πρόγραμμα σπουδαστή" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,13 +1447,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
-    <tabColor theme="5"/>
+    <tabColor rgb="FF002060"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1324,219 +1463,388 @@
     <col min="3" max="3" width="25.69921875" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" customWidth="1"/>
     <col min="5" max="5" width="27.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.796875" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="6" max="7" width="27.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="C4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="23">
+        <v>43777</v>
+      </c>
+      <c r="E4" s="20">
+        <v>43786</v>
+      </c>
+      <c r="F4" s="29">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="22">
+        <v>43781</v>
+      </c>
+      <c r="E5" s="16">
+        <v>43783</v>
+      </c>
+      <c r="F5" s="30">
+        <v>9</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="22">
+        <v>43784</v>
+      </c>
+      <c r="E6" s="16">
+        <v>43786</v>
+      </c>
+      <c r="F6" s="31">
+        <v>10</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="22">
+        <v>43788</v>
+      </c>
+      <c r="E7" s="16">
+        <v>43788</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22">
+        <v>43782</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43793</v>
+      </c>
+      <c r="F8" s="31">
+        <v>50</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22">
+        <v>43794</v>
+      </c>
+      <c r="E9" s="16">
+        <v>43798</v>
+      </c>
+      <c r="F9" s="30">
+        <v>18</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22">
+        <v>43799</v>
+      </c>
+      <c r="E10" s="16">
+        <v>43802</v>
+      </c>
+      <c r="F10" s="31">
+        <v>18</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="23">
+        <v>43783</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43817</v>
+      </c>
+      <c r="F11" s="32">
+        <v>45</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="23">
+        <v>43818</v>
+      </c>
+      <c r="E12" s="20">
+        <v>43827</v>
+      </c>
+      <c r="F12" s="29">
+        <v>4</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="22">
+        <v>43828</v>
+      </c>
+      <c r="E13" s="16">
+        <v>43863</v>
+      </c>
+      <c r="F13" s="30">
+        <v>4</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="22">
+        <v>43788</v>
+      </c>
+      <c r="E14" s="16">
+        <v>43789</v>
+      </c>
+      <c r="F14" s="31">
+        <v>2</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="22">
+        <v>43790</v>
+      </c>
+      <c r="E15" s="16">
+        <v>43791</v>
+      </c>
+      <c r="F15" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
+      <c r="G15" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22">
+        <v>43792</v>
+      </c>
+      <c r="E16" s="16">
+        <v>43796</v>
+      </c>
+      <c r="F16" s="31">
+        <v>3</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="22">
+        <v>43797</v>
+      </c>
+      <c r="E17" s="16">
+        <v>43798</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="22">
         <v>43799</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="E18" s="16">
         <v>43799</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="27">
-        <v>43781</v>
-      </c>
-      <c r="E6" s="19">
-        <v>43793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="27">
-        <v>43794</v>
-      </c>
-      <c r="E7" s="19">
-        <f ca="1">TODAY()+45</f>
-        <v>43826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
-        <f ca="1">TODAY()+60</f>
-        <v>43841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
-        <f ca="1">TODAY()+75</f>
-        <v>43856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
-        <f ca="1">TODAY()+90</f>
-        <v>43871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19">
-        <f ca="1">TODAY()+105</f>
-        <v>43886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19">
-        <f ca="1">TODAY()+115</f>
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19">
-        <f ca="1">TODAY()+130</f>
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19">
-        <f ca="1">TODAY()+145</f>
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19">
-        <f ca="1">TODAY()+160</f>
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="F18" s="31">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
   </sheetData>
+  <autoFilter ref="F3:F18"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε εργασίες σε αυτό το φύλλο εργασίας. Μπορείτε να βρείτε μια προβολή μήνα και εβδομάδας αυτών των εργασιών στα αντίστοιχα φύλλα εργασίας &quot;Προβολή μήνα&quot; και &quot;Προβολή εβδομάδας&quot; αυτού του βιβλίου εργασίας" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή μήνα&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="B1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή μήνα&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="B1:D1 F1:G1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή εβδομάδας&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την περιγραφή για την εργασία ανάθεση σε αυτή τη στήλη" sqref="B3:D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την προθεσμία παράδοσης σε αυτή τη στήλη" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την περιγραφή για την εργασία ανάθεση σε αυτή τη στήλη" sqref="B3:D4 F3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την προθεσμία παράδοσης σε αυτή τη στήλη" sqref="E3:E4"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="'Προβολή μήνα'!A1" tooltip="Κάντε κλικ για να δείτε το μηνιαίο πρόγραμμα" display="ΠΡΟΒΟΛΗ ΜΗΝΑ"/>
@@ -1577,7 +1885,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1602,15 +1910,15 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:11" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -1694,7 +2002,7 @@
         <f ca="1">IF(LEN(H6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
@@ -2045,7 +2353,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -2077,15 +2385,15 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="2:8" ht="28.2" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sotiris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sotiris\Documents\GitHub\Foodisimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Εργασίες" sheetId="6" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Προβολή εβδομάδας" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Εργασίες!$F$3:$F$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Εργασίες!$3:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Εργασίες!$F$2:$F$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Εργασίες!$2:$2</definedName>
     <definedName name="ΑρΕβδΜήνα">MONTH(DATEVALUE(" 1/ "&amp;'Προβολή εβδομάδας'!ΕβδΜήνα))</definedName>
     <definedName name="ΑρΜΜήνα">MONTH(DATEVALUE(" 1/ "&amp;ΜΜήνας))</definedName>
     <definedName name="Εβδ2Μήνα">'Προβολή μήνα'!$B$8:$H$9</definedName>
@@ -36,12 +36,11 @@
     <definedName name="ΤίτλοςΣτήλης1">Εργασίες[[#Headers],[ΠΕΡΙΓΡΑΦΗ]]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>ΠΡΟΒΟΛΗ ΜΗΝΑ</t>
   </si>
@@ -109,9 +108,6 @@
     <t>Feature Εισαγωγή Νέου Καταστήματος Admin</t>
   </si>
   <si>
-    <t xml:space="preserve"> ΕΡΓΑΣΙΕΣ ΓIA V.0.1</t>
-  </si>
-  <si>
     <t>ΑΝΑΘΕΣΗ ΣΕ</t>
   </si>
   <si>
@@ -176,6 +172,9 @@
   </si>
   <si>
     <t>Front-End, Back-End</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -184,7 +183,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -396,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -503,15 +502,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color theme="0"/>
@@ -546,6 +536,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -596,11 +619,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
@@ -654,7 +676,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,34 +691,58 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="11" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="11" xfId="21" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="10" borderId="10" xfId="22" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="12" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="12" xfId="21" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="10" borderId="11" xfId="22" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,7 +771,61 @@
     <cellStyle name="Σκιασμένη σημείωση ημέρας προβολής εβδομάδας" xfId="18"/>
     <cellStyle name="Χρώμα εργασίας" xfId="6"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -949,9 +1049,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Πρόγραμμα σπουδαστή" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -971,7 +1071,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="254557"/>
@@ -983,6 +1083,104 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13472160" y="990600"/>
+          <a:ext cx="184731" cy="254557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="254557"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14813280" y="548640"/>
+          <a:ext cx="184731" cy="254557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="254557"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14813280" y="1623060"/>
           <a:ext cx="184731" cy="254557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1150,13 +1348,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Εργασίες" displayName="Εργασίες" ref="B3:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B3:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Εργασίες" displayName="Εργασίες" ref="B2:E21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="B2:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ΠΕΡΙΓΡΑΦΗ" dataDxfId="3" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="3" name="ΑΝΑΘΕΣΗ ΣΕ" dataDxfId="2" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="4" name="ΑΠΌ" dataDxfId="1" dataCellStyle="Περιγραφή της εργασίας"/>
-    <tableColumn id="2" name="ΕΩΣ" dataDxfId="0" dataCellStyle="Ημερομηνία"/>
+    <tableColumn id="1" name="ΠΕΡΙΓΡΑΦΗ" dataDxfId="11" dataCellStyle="Περιγραφή της εργασίας"/>
+    <tableColumn id="3" name="ΑΝΑΘΕΣΗ ΣΕ" dataDxfId="10" dataCellStyle="Περιγραφή της εργασίας"/>
+    <tableColumn id="4" name="ΑΠΌ" dataDxfId="9" dataCellStyle="Περιγραφή της εργασίας"/>
+    <tableColumn id="2" name="ΕΩΣ" dataDxfId="8" dataCellStyle="Ημερομηνία"/>
+  </tableColumns>
+  <tableStyleInfo name="Πρόγραμμα σπουδαστή" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:A21" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5" headerRowCellStyle="Χρώμα εργασίας">
+  <autoFilter ref="A2:A21"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Version"/>
+  </tableColumns>
+  <tableStyleInfo name="Πρόγραμμα σπουδαστή" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F2:F21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" headerRowCellStyle="Χρώμα εργασίας">
+  <autoFilter ref="F2:F21"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="ΏΡΕΣ"/>
   </tableColumns>
   <tableStyleInfo name="Πρόγραμμα σπουδαστή" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,402 +1671,453 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="39" customWidth="1"/>
     <col min="2" max="2" width="55.8984375" customWidth="1"/>
     <col min="3" max="3" width="25.69921875" customWidth="1"/>
-    <col min="4" max="4" width="27.69921875" customWidth="1"/>
-    <col min="5" max="5" width="27.09765625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="27.69921875" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22">
+        <v>43777</v>
+      </c>
+      <c r="E3" s="19">
+        <v>43786</v>
+      </c>
+      <c r="F3" s="25">
+        <v>5</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="21">
+        <v>43781</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43783</v>
+      </c>
+      <c r="F4" s="26">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="21">
+        <v>43784</v>
+      </c>
+      <c r="E5" s="15">
+        <v>43786</v>
+      </c>
+      <c r="F5" s="27">
+        <v>10</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="21">
+        <v>43788</v>
+      </c>
+      <c r="E6" s="15">
+        <v>43788</v>
+      </c>
+      <c r="F6" s="26">
+        <v>2</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="21">
+        <v>43782</v>
+      </c>
+      <c r="E8" s="15">
+        <v>43793</v>
+      </c>
+      <c r="F8" s="36">
+        <v>50</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="21">
+        <v>43794</v>
+      </c>
+      <c r="E9" s="15">
+        <v>43798</v>
+      </c>
+      <c r="F9" s="37">
+        <v>18</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="21">
+        <v>43799</v>
+      </c>
+      <c r="E10" s="15">
+        <v>43802</v>
+      </c>
+      <c r="F10" s="36">
+        <v>18</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="22">
+        <v>43783</v>
+      </c>
+      <c r="E11" s="19">
+        <v>43817</v>
+      </c>
+      <c r="F11" s="37">
+        <v>45</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="22">
+        <v>43818</v>
+      </c>
+      <c r="E12" s="19">
+        <v>43827</v>
+      </c>
+      <c r="F12" s="36">
+        <v>4</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="21">
+        <v>43828</v>
+      </c>
+      <c r="E13" s="15">
+        <v>43863</v>
+      </c>
+      <c r="F13" s="37">
+        <v>4</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="21">
+        <v>43788</v>
+      </c>
+      <c r="E14" s="15">
+        <v>43789</v>
+      </c>
+      <c r="F14" s="36">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="21">
+        <v>43790</v>
+      </c>
+      <c r="E15" s="15">
+        <v>43791</v>
+      </c>
+      <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="G15" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="23">
-        <v>43777</v>
-      </c>
-      <c r="E4" s="20">
-        <v>43786</v>
-      </c>
-      <c r="F4" s="29">
-        <v>5</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="D16" s="21">
+        <v>43792</v>
+      </c>
+      <c r="E16" s="15">
+        <v>43796</v>
+      </c>
+      <c r="F16" s="36">
+        <v>3</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22">
-        <v>43781</v>
-      </c>
-      <c r="E5" s="16">
-        <v>43783</v>
-      </c>
-      <c r="F5" s="30">
-        <v>9</v>
-      </c>
-      <c r="G5" s="33" t="s">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21">
+        <v>43797</v>
+      </c>
+      <c r="E17" s="15">
+        <v>43798</v>
+      </c>
+      <c r="F17" s="37">
+        <v>2</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="22">
-        <v>43784</v>
-      </c>
-      <c r="E6" s="16">
-        <v>43786</v>
-      </c>
-      <c r="F6" s="31">
-        <v>10</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="22">
-        <v>43788</v>
-      </c>
-      <c r="E7" s="16">
-        <v>43788</v>
-      </c>
-      <c r="F7" s="30">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="21">
+        <v>43799</v>
+      </c>
+      <c r="E18" s="15">
+        <v>43799</v>
+      </c>
+      <c r="F18" s="36">
         <v>2</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="22">
-        <v>43782</v>
-      </c>
-      <c r="E8" s="16">
-        <v>43793</v>
-      </c>
-      <c r="F8" s="31">
-        <v>50</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22">
-        <v>43794</v>
-      </c>
-      <c r="E9" s="16">
-        <v>43798</v>
-      </c>
-      <c r="F9" s="30">
-        <v>18</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="22">
-        <v>43799</v>
-      </c>
-      <c r="E10" s="16">
-        <v>43802</v>
-      </c>
-      <c r="F10" s="31">
-        <v>18</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="23">
-        <v>43783</v>
-      </c>
-      <c r="E11" s="20">
-        <v>43817</v>
-      </c>
-      <c r="F11" s="32">
-        <v>45</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="23">
-        <v>43818</v>
-      </c>
-      <c r="E12" s="20">
-        <v>43827</v>
-      </c>
-      <c r="F12" s="29">
-        <v>4</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="22">
-        <v>43828</v>
-      </c>
-      <c r="E13" s="16">
-        <v>43863</v>
-      </c>
-      <c r="F13" s="30">
-        <v>4</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="22">
-        <v>43788</v>
-      </c>
-      <c r="E14" s="16">
-        <v>43789</v>
-      </c>
-      <c r="F14" s="31">
-        <v>2</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="22">
-        <v>43790</v>
-      </c>
-      <c r="E15" s="16">
-        <v>43791</v>
-      </c>
-      <c r="F15" s="30">
-        <v>1</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="22">
-        <v>43792</v>
-      </c>
-      <c r="E16" s="16">
-        <v>43796</v>
-      </c>
-      <c r="F16" s="31">
-        <v>3</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="22">
-        <v>43797</v>
-      </c>
-      <c r="E17" s="16">
-        <v>43798</v>
-      </c>
-      <c r="F17" s="30">
-        <v>2</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="22">
-        <v>43799</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43799</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="G18" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="F3:F18"/>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε εργασίες σε αυτό το φύλλο εργασίας. Μπορείτε να βρείτε μια προβολή μήνα και εβδομάδας αυτών των εργασιών στα αντίστοιχα φύλλα εργασίας &quot;Προβολή μήνα&quot; και &quot;Προβολή εβδομάδας&quot; αυτού του βιβλίου εργασίας" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή μήνα&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="B1:D1 F1:G1"/>
+  <dataValidations xWindow="121" yWindow="500" count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή μήνα&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="A1:D1 F1:G1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Μεταβείτε στο φύλλο εργασίας &quot;Προβολή εβδομάδας&quot; των εργασιών σε αυτό το φύλλο εργασίας επιλέγοντας την υπερ-σύνδεση σε αυτό το κελί" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την περιγραφή για την εργασία ανάθεση σε αυτή τη στήλη" sqref="B3:D4 F3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την προθεσμία παράδοσης σε αυτή τη στήλη" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την περιγραφή για την εργασία ανάθεση σε αυτή τη στήλη" sqref="A2:D3 F2:G3 A4:A13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Εισαγάγετε την προθεσμία παράδοσης σε αυτή τη στήλη" sqref="E2:E3"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="'Προβολή μήνα'!A1" tooltip="Κάντε κλικ για να δείτε το μηνιαίο πρόγραμμα" display="ΠΡΟΒΟΛΗ ΜΗΝΑ"/>
     <hyperlink ref="E1" location="'Προβολή εβδομάδας'!A1" tooltip="Κάντε κλικ για να δείτε το εβδομαδιαίο πρόγραμμα" display="ΠΡΟΒΟΛΗ ΕΒΔΟΜΑΔΑΣ"/>
+    <hyperlink ref="A1" location="'Προβολή μήνα'!A1" tooltip="Κάντε κλικ για να δείτε το μηνιαίο πρόγραμμα" display="ΠΡΟΒΟΛΗ ΜΗΝΑ"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,8 +2126,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1885,10 +2156,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1901,405 +2172,405 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:11" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="3" t="str">
         <f t="shared" ref="B6:H6" ca="1" si="0">IF(WEEKDAY(DATEVALUE(" 1/ "&amp;ΜΜήνας&amp;" / "&amp;ΜηνΈτους)-1)=COLUMN(A$2),1,IF(LEN(A6)&gt;0,A6+1,""))</f>
         <v/>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="4" t="str">
+      <c r="F6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f ca="1">IF(LEN(B6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f ca="1">IF(LEN(C6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f ca="1">IF(LEN(D6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="4" t="str">
         <f ca="1">IF(LEN(E6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f ca="1">IF(LEN(F6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f ca="1">IF(LEN(G6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <f ca="1">IF(LEN(H6)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H6))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f ca="1">IF(LEN(H6)&gt;0,IF(H6=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",H6+1),"")</f>
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:H8" ca="1" si="1">IF(LEN(B8)&gt;0,IF(B8=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",B8+1),"")</f>
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f ca="1">IF(LEN(B8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="5" t="str">
         <f ca="1">IF(LEN(C8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f ca="1">IF(LEN(D8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="5" t="str">
         <f ca="1">IF(LEN(E8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="5" t="str">
         <f ca="1">IF(LEN(F8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="5" t="str">
         <f ca="1">IF(LEN(G8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="5" t="str">
         <f ca="1">IF(LEN(H8)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H8))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f ca="1">IF(LEN(H8)&gt;0,IF(H8=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",H8+1),"")</f>
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:H10" ca="1" si="2">IF(LEN(B10)&gt;0,IF(B10=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",B10+1),"")</f>
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f ca="1">IF(LEN(B10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="4" t="str">
         <f ca="1">IF(LEN(C10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="4" t="str">
         <f ca="1">IF(LEN(D10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="4" t="str">
         <f ca="1">IF(LEN(E10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="4" t="str">
         <f ca="1">IF(LEN(F10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="4" t="str">
         <f ca="1">IF(LEN(G10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="H11" s="4" t="str">
         <f ca="1">IF(LEN(H10)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H10))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f ca="1">IF(LEN(H10)&gt;0,IF(H10=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",H10+1),"")</f>
         <v>16</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" ref="C12:H12" ca="1" si="3">IF(LEN(B12)&gt;0,IF(B12=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",B12+1),"")</f>
         <v>17</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="5" t="str">
         <f ca="1">IF(LEN(B12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="5" t="str">
         <f ca="1">IF(LEN(C12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="5" t="str">
         <f ca="1">IF(LEN(D12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="5" t="str">
         <f ca="1">IF(LEN(E12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="5" t="str">
         <f ca="1">IF(LEN(F12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="G13" s="5" t="str">
         <f ca="1">IF(LEN(G12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="5" t="str">
         <f ca="1">IF(LEN(H12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f ca="1">IF(LEN(H12)&gt;0,IF(H12=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",H12+1),"")</f>
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:H14" ca="1" si="4">IF(LEN(B14)&gt;0,IF(B14=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",B14+1),"")</f>
         <v>24</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>25</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>26</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>27</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f ca="1">IF(LEN(B14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="4" t="str">
         <f ca="1">IF(LEN(C14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4" t="str">
         <f ca="1">IF(LEN(D14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="4" t="str">
         <f ca="1">IF(LEN(E14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f ca="1">IF(LEN(F14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f ca="1">IF(LEN(G14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="4" t="str">
         <f ca="1">IF(LEN(H14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f ca="1">IF(LEN(H14)&gt;0,IF(H14=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",H14+1),"")</f>
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:H16" ca="1" si="5">IF(LEN(B16)&gt;0,IF(B16=DAY(DATE(ΜηνΈτους,ΑρΜΜήνα+1,0)),"",B16+1),"")</f>
         <v/>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="G16" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="H16" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="5" t="str">
         <f ca="1">IF(LEN(B16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,B16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="5" t="str">
         <f ca="1">IF(LEN(C16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,C16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="5" t="str">
         <f ca="1">IF(LEN(D16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,D16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="5" t="str">
         <f ca="1">IF(LEN(E16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,E16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="5" t="str">
         <f ca="1">IF(LEN(F16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,F16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G17" s="6" t="str">
+      <c r="G17" s="5" t="str">
         <f ca="1">IF(LEN(G16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,G16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H17" s="6" t="str">
+      <c r="H17" s="5" t="str">
         <f ca="1">IF(LEN(H16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΜηνΈτους,ΑρΜΜήνα,H16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
@@ -2353,10 +2624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2372,408 +2643,408 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="28.2" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="6" t="str">
         <f t="shared" ref="B5:H5" ca="1" si="0">IF(WEEKDAY(DATEVALUE(" 1/ "&amp;ΕβδΜήνα&amp;" / "&amp;ΕβδΈτους)-1)=COLUMN(A$2),1,IF(LEN(A5)&gt;0,A5+1,""))</f>
         <v/>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f ca="1">IF(LEN(H5)&gt;0,IF(H5=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",H5+1),"")</f>
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:H10" ca="1" si="1">IF(LEN(B6)&gt;0,IF(B6=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",B6+1),"")</f>
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f ca="1">IF(LEN(H6)&gt;0,IF(H6=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",H6+1),"")</f>
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f ca="1">IF(LEN(H7)&gt;0,IF(H7=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",H7+1),"")</f>
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f ca="1">IF(LEN(H8)&gt;0,IF(H8=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",H8+1),"")</f>
         <v>23</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f ca="1">IF(LEN(H9)&gt;0,IF(H9=ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",H9+1),"")</f>
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="7" t="str">
+      <c r="C10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:8" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" ref="B12:H12" ca="1" si="2">IF(B14="",IF(AND(ISNUMBER(A12),A12&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),A12+1,""),IF(B14&lt;=7,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(A$2))-7))</f>
         <v/>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="11" t="str">
         <f ca="1">IF(LEN(B12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,B12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="11" t="str">
         <f ca="1">IF(LEN(C12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,C12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f ca="1">IF(LEN(D12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,D12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="11" t="str">
         <f ca="1">IF(LEN(E12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,E12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F13" s="11" t="str">
         <f ca="1">IF(LEN(F12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,F12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="11" t="str">
         <f ca="1">IF(LEN(G12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,G12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H13" s="12" t="str">
+      <c r="H13" s="11" t="str">
         <f ca="1">IF(LEN(H12)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,H12))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <f t="shared" ref="B14:H14" ca="1" si="3">INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(A$2))</f>
         <v/>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f ca="1">IF(LEN(B14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,B14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="4" t="str">
         <f ca="1">IF(LEN(C14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,C14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4" t="str">
         <f ca="1">IF(LEN(D14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,D14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="4" t="str">
         <f ca="1">IF(LEN(E14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,E14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f ca="1">IF(LEN(F14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,F14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f ca="1">IF(LEN(G14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,G14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="4" t="str">
         <f ca="1">IF(LEN(H14)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,H14))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <f t="array" aca="1" ref="B16" ca="1">IFERROR(IF(B14="",IF(AND(ISNUMBER(A16),A16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),A16+1,$H$14+COLUMN(A$2)),IF(B14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(A$2))+7)),"")</f>
         <v>2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f t="array" aca="1" ref="C16" ca="1">IFERROR(IF(C14="",IF(AND(ISNUMBER(B16),B16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),B16+1,$H$14+COLUMN(B$2)),IF(C14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(B$2))+7)),"")</f>
         <v>3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(IF(D14="",IF(AND(ISNUMBER(C16),C16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),C16+1,$H$14+COLUMN(C$2)),IF(D14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(C$2))+7)),"")</f>
         <v>4</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(IF(E14="",IF(AND(ISNUMBER(D16),D16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),D16+1,$H$14+COLUMN(D$2)),IF(E14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(D$2))+7)),"")</f>
         <v>5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="array" aca="1" ref="F16" ca="1">IFERROR(IF(F14="",IF(AND(ISNUMBER(E16),E16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),E16+1,$H$14+COLUMN(E$2)),IF(F14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(E$2))+7)),"")</f>
         <v>6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f t="array" aca="1" ref="G16" ca="1">IFERROR(IF(G14="",IF(AND(ISNUMBER(F16),F16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),F16+1,$H$14+COLUMN(F$2)),IF(G14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(F$2))+7)),"")</f>
         <v>7</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f t="array" aca="1" ref="H16" ca="1">IFERROR(IF(H14="",IF(AND(ISNUMBER(G16),G16&lt;ΤελευταίαΗμέραΜήνα_Εβδομάδα),G16+1,$H$14+COLUMN(G$2)),IF(H14+7&gt;ΤελευταίαΗμέραΜήνα_Εβδομάδα,"",INDEX(ΠροβΕβδΜήνα,ΕβδΕβδομάδα,COLUMN(G$2))+7)),"")</f>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="str">
+      <c r="B17" s="11" t="str">
         <f ca="1">IF(LEN(B16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,B16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f ca="1">IF(LEN(C16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,C16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="11" t="str">
         <f ca="1">IF(LEN(D16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,D16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="11" t="str">
         <f ca="1">IF(LEN(E16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,E16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="11" t="str">
         <f ca="1">IF(LEN(F16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,F16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="11" t="str">
         <f ca="1">IF(LEN(G16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,G16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
-      <c r="H17" s="12" t="str">
+      <c r="H17" s="11" t="str">
         <f ca="1">IF(LEN(H16)=0,"",IF(COUNTIF(Εργασίες[ΕΩΣ],DATE(ΕβδΈτους,ΑρΕβδΜήνα,H16))&gt;0,"Παράδοση εργασίας!",""))</f>
         <v/>
       </c>
